--- a/tests/Data/Disks/Local/import-users-with-columns-heading.xlsx
+++ b/tests/Data/Disks/Local/import-users-with-columns-heading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbrouwers/Sites/Laravel-Excel/tests/Data/Disks/Local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC11E8-70D2-FB4E-9EED-9EDF0E8B94ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151315A0-E9DE-4846-A615-056723BC9D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="6300" windowWidth="25600" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
